--- a/db/logins.xlsx
+++ b/db/logins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção v0.2\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2B607-2FDD-40BB-90D2-473690ECA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B682CA-E986-4122-B982-B02C3345D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +438,14 @@
         <v>18051980</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/logins.xlsx
+++ b/db/logins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção v0.2\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B682CA-E986-4122-B982-B02C3345D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D3CEF-BDE1-4ED8-A239-EDB13A0D5BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>Afx16121999</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>coord</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>AccessLevel</t>
+  </si>
+  <si>
+    <t>diretor</t>
+  </si>
+  <si>
+    <t>18051980.ga</t>
   </si>
 </sst>
 </file>
@@ -378,72 +399,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>18051980</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/db/logins.xlsx
+++ b/db/logins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção v0.2\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eurico.dante\Desktop\testes-programação\entrada-manutenção v0.3\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D3CEF-BDE1-4ED8-A239-EDB13A0D5BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229F6EC-0970-452E-905C-B963467D360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -60,22 +60,10 @@
     <t>Afx16121999</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>coord</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Alison</t>
   </si>
   <si>
     <t>AccessLevel</t>
-  </si>
-  <si>
-    <t>diretor</t>
   </si>
   <si>
     <t>18051980.ga</t>
@@ -402,7 +390,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +408,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,8 +418,8 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,8 +429,8 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,8 +440,8 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,8 +451,8 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,21 +460,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
